--- a/src/main/resources/resources/TestData.xlsx
+++ b/src/main/resources/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18260"/>
+    <workbookView windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -35,16 +35,22 @@
     <t>CurrentBal</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>address2</t>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>User 1 Address1</t>
+  </si>
+  <si>
+    <t>User 1 Address2</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 2 Address1</t>
+  </si>
+  <si>
+    <t>User 2 Address2</t>
   </si>
   <si>
     <t>Description</t>
@@ -53,10 +59,10 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>test transfer user1</t>
-  </si>
-  <si>
-    <t>test transfer user2</t>
+    <t xml:space="preserve">User 1 - test transfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 2 - test transfer </t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1047,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>111111</v>
@@ -1061,13 +1067,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>222222</v>
@@ -1102,15 +1108,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>11.1</v>
@@ -1118,10 +1124,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
     </row>
   </sheetData>
